--- a/Liste_NASDAQ_caricate.xlsx
+++ b/Liste_NASDAQ_caricate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d4a6bc32fec4062/UNIMIB_DataScience/99-PROJECTS/FinancialMarketAnalytics2022/Financial_Market_Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{D19B089B-9305-43A0-BD49-4A7D0C5336F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB46BF6-D624-4C12-BF9F-F09098446136}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{D19B089B-9305-43A0-BD49-4A7D0C5336F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4609BB18-EF93-40F6-B6A8-528B251675D3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{7DB87D04-FAE8-4BDC-AD0B-77860A5986BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{7DB87D04-FAE8-4BDC-AD0B-77860A5986BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="327">
   <si>
     <t>Name</t>
   </si>
@@ -1454,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1D5E4E-2B68-42E2-AEA9-E5C24FB062B0}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3673,7 +3673,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B104"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4563,7 +4563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7419,8 +7419,8 @@
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" t="s">
-        <v>253</v>
+      <c r="E123">
+        <v>0</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -8008,7 +8008,7 @@
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9232,7 +9232,7 @@
       <c r="B110" t="s">
         <v>220</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D110" t="s">
         <v>235</v>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       <c r="B111" t="s">
         <v>222</v>
       </c>
-      <c r="E111" t="s">
+      <c r="D111" t="s">
         <v>235</v>
       </c>
     </row>
@@ -9254,40 +9254,40 @@
       <c r="B112" t="s">
         <v>224</v>
       </c>
-      <c r="E112" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>225</v>
       </c>
       <c r="B113" t="s">
         <v>226</v>
       </c>
-      <c r="E113" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>227</v>
       </c>
       <c r="B114" t="s">
         <v>228</v>
       </c>
-      <c r="E114" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>229</v>
       </c>
       <c r="B115" t="s">
         <v>230</v>
       </c>
-      <c r="E115" t="s">
+      <c r="D115" t="s">
         <v>235</v>
       </c>
     </row>
@@ -9301,8 +9301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE5BA2E-CE43-4D66-A125-0DABD9FB8C2C}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B105"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10220,8 +10220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33CB404-3B87-4811-BDD9-00C5C351E8FA}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11488,8 +11488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA107A-6A71-493E-B473-66176603316D}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13710,8 +13710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA92EF3-D6A7-4D61-B2C7-253FE78BFAEB}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15918,8 +15918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9865BAE6-1013-4F93-8416-AD0FA55D9FA1}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
